--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1887,15 +1888,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
@@ -3617,7 +3618,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4147,12 +4148,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
@@ -4264,29 +4265,29 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.7368421052632"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4896,14 +4897,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5305,26 +5306,26 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="68" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="68" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="45.9554655870445"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="68" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="68" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="68" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="74.6599190283401"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="68" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="68" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="68" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="68" width="16.4089068825911"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="68" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="68" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="68" width="6.63967611336032"/>
@@ -5732,18 +5733,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5913,15 +5914,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.3117408906883"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -6281,17 +6282,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="68" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="68" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="68" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="68" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="68" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="52.165991902834"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="68" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="68" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="68" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="68" width="11.6761133603239"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,8 @@
     <sheet name="Block Together" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Survey" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Availability" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Distribution" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Scoring" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Scoring" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Distribution" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Share of Empty" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="271">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1025,6 +1026,9 @@
     <t xml:space="preserve">23-25</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">32-34</t>
   </si>
   <si>
@@ -1073,7 +1077,7 @@
     <t xml:space="preserve">template_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaño del Producto</t>
+    <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
   </si>
   <si>
     <t xml:space="preserve">iterate by</t>
@@ -1101,6 +1105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Category is blocked together in the specific Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
@@ -1879,24 +1886,24 @@
   </sheetPr>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
@@ -3609,395 +3616,657 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="68" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="68" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="68" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="68" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="68" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="68" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="O2" s="4" t="s">
+      <c r="R1" s="75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="82"/>
+      <c r="N2" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="82"/>
+    </row>
+    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="82"/>
+      <c r="N3" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="82"/>
+    </row>
+    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="n">
+        <v>35</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="82"/>
+      <c r="N4" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="82"/>
+    </row>
+    <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="n">
+        <v>36</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="82"/>
+    </row>
+    <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="n">
+        <v>37</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="82"/>
+    </row>
+    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="78" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="O3" s="0" t="s">
+      <c r="R7" s="82"/>
+    </row>
+    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="78" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="85"/>
+      <c r="N8" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="O4" s="0" t="s">
+      <c r="R8" s="82"/>
+    </row>
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="78" t="n">
+        <v>47</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="I5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="0" t="s">
+      <c r="R9" s="82"/>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="78" t="n">
+        <v>48</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="R10" s="82"/>
+    </row>
+    <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="78" t="n">
+        <v>52</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="n">
-        <v>32</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="R11" s="82"/>
+    </row>
+    <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="78" t="n">
+        <v>53</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="H12" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="82"/>
+    </row>
+    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="87" t="n">
+        <v>61</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="H13" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="87" t="n">
+        <v>62</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" s="42" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>59</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
+      <c r="H14" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4088,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>197</v>
@@ -4100,7 +4369,7 @@
         <v>179</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="51"/>
@@ -4114,7 +4383,7 @@
         <v>200</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>43</v>
@@ -4148,12 +4417,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
@@ -4265,29 +4534,30 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.2712550607287"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.3400809716599"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4616,7 +4886,7 @@
       </c>
       <c r="S6" s="56"/>
     </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="n">
         <v>30</v>
       </c>
@@ -4636,7 +4906,7 @@
         <v>98</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>211</v>
@@ -4664,7 +4934,7 @@
         <v>199</v>
       </c>
       <c r="Q7" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R7" s="56" t="s">
         <v>43</v>
@@ -4792,7 +5062,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>185</v>
@@ -4897,14 +5167,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.6720647773279"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -4933,7 +5203,7 @@
         <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4957,7 +5227,7 @@
         <v>196</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -4979,16 +5249,16 @@
         <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>198</v>
@@ -5068,13 +5338,13 @@
         <v>194</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -5083,7 +5353,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>39</v>
@@ -5128,7 +5398,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>72</v>
@@ -5153,7 +5423,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>72</v>
@@ -5178,7 +5448,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>72</v>
@@ -5202,7 +5472,7 @@
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G6" s="67" t="s">
         <v>69</v>
@@ -5211,7 +5481,7 @@
         <v>206</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>200</v>
@@ -5234,7 +5504,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>69</v>
@@ -5268,7 +5538,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>69</v>
@@ -5306,26 +5576,26 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="68" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="68" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="68" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="68" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="68" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="68" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="68" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="68" width="16.4089068825911"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="68" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="68" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="68" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="68" width="6.63967611336032"/>
@@ -5350,7 +5620,7 @@
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -5359,13 +5629,13 @@
         <v>185</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>204</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -5383,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5410,7 +5680,7 @@
         <v>186</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>205</v>
@@ -5445,13 +5715,13 @@
       </c>
       <c r="F3" s="69"/>
       <c r="G3" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>186</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>205</v>
@@ -5486,16 +5756,16 @@
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>186</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -5527,16 +5797,16 @@
       </c>
       <c r="F5" s="69"/>
       <c r="G5" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -5568,16 +5838,16 @@
       </c>
       <c r="F6" s="69"/>
       <c r="G6" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>186</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5609,16 +5879,16 @@
       </c>
       <c r="F7" s="69"/>
       <c r="G7" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>186</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -5650,7 +5920,7 @@
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>186</v>
@@ -5671,30 +5941,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>186</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K9" s="68" t="s">
         <v>206</v>
@@ -5733,18 +6003,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5766,13 +6036,13 @@
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -5781,19 +6051,19 @@
         <v>194</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,16 +6080,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="74"/>
@@ -5841,16 +6111,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="74"/>
@@ -5872,16 +6142,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="74"/>
@@ -5914,15 +6184,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.7368421052632"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -5946,7 +6216,7 @@
         <v>173</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G1" s="75" t="s">
         <v>6</v>
@@ -5955,7 +6225,7 @@
         <v>176</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J1" s="75" t="s">
         <v>7</v>
@@ -5964,13 +6234,13 @@
         <v>194</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" s="75" t="s">
         <v>195</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O1" s="75" t="s">
         <v>10</v>
@@ -5979,7 +6249,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,7 +6302,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>130</v>
@@ -6041,15 +6311,15 @@
         <v>184</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
@@ -6073,7 +6343,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>130</v>
@@ -6082,15 +6352,15 @@
         <v>211</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
@@ -6114,24 +6384,24 @@
         <v>123</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>130</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
@@ -6152,17 +6422,17 @@
         <v>121</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>163</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="56"/>
@@ -6191,17 +6461,17 @@
         <v>121</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>163</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="56"/>
@@ -6233,7 +6503,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>130</v>
@@ -6242,15 +6512,15 @@
         <v>211</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L8" s="56"/>
       <c r="M8" s="40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
@@ -6273,657 +6543,395 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="68" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="68" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="68" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="68" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="75" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="75" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="J1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M1" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="75" t="s">
+      <c r="K1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="75" t="s">
+      <c r="M1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="75" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="n">
-        <v>33</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="P1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="O3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="O4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="I5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="58" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="82"/>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="n">
-        <v>34</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="58" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="82"/>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="n">
-        <v>35</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="82"/>
-    </row>
-    <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="n">
-        <v>36</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="82"/>
-    </row>
-    <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="n">
-        <v>37</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="82"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78" t="n">
-        <v>42</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="59" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="82"/>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="n">
-        <v>43</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="59" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="82"/>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="n">
-        <v>47</v>
-      </c>
-      <c r="B9" s="79" t="s">
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="59" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="82"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="78" t="n">
-        <v>48</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="59" t="s">
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" s="42" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="82"/>
-    </row>
-    <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78" t="n">
-        <v>52</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="82"/>
-    </row>
-    <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78" t="n">
-        <v>53</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="82"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="87" t="n">
-        <v>61</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="87" t="n">
-        <v>62</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>59</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,8 @@
     <sheet name="SOS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Per bay SOS" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Combo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Block Together" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Survey" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Survey" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Block Together" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Availability" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Scoring" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Distribution" sheetId="10" state="visible" r:id="rId11"/>
@@ -30,6 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="272">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -924,6 +925,12 @@
     <t xml:space="preserve">product_type</t>
   </si>
   <si>
+    <t xml:space="preserve">Numerator Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Entity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bay Count + SOS</t>
   </si>
   <si>
@@ -948,6 +955,12 @@
     <t xml:space="preserve">SKU,Other</t>
   </si>
   <si>
+    <t xml:space="preserve">manufacturer_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_fk</t>
+  </si>
+  <si>
     <t xml:space="preserve">numerator param 1</t>
   </si>
   <si>
@@ -966,12 +979,6 @@
     <t xml:space="preserve">Additional Scene Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerator Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Entity</t>
-  </si>
-  <si>
     <t xml:space="preserve">target</t>
   </si>
   <si>
@@ -981,9 +988,6 @@
     <t xml:space="preserve">POS,SKU,Other</t>
   </si>
   <si>
-    <t xml:space="preserve">manufacturer_fk</t>
-  </si>
-  <si>
     <t xml:space="preserve">template_fk</t>
   </si>
   <si>
@@ -1075,6 +1079,33 @@
   </si>
   <si>
     <t xml:space="preserve">template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant_questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all questions are answered "No" then pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
   </si>
   <si>
     <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
@@ -1112,33 +1143,6 @@
   <si>
     <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
 BEBIDA REFRESCANTE,BATIDO,AGUA SABORIZADA,AGUA PURIFICADA,AGUA MINERAL,Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachada (Cuadro Básico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "Si" then pass. If not all questions are answered yes, proceed to option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If all questions are answered "No" then pass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hay un enfriador competencia antes que el de CC?,¿El producto del enfriador de competencia está visible desde el marco de la entrada?,¿Hay enfriador del cliente antes que el de CC?</t>
   </si>
   <si>
     <t xml:space="preserve">product_type </t>
@@ -1643,6 +1647,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1675,10 +1683,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1723,6 +1727,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1737,18 +1753,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1895,15 +1899,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
@@ -3624,22 +3628,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="68" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="68" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="68" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="68" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="68" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="71" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="71" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="71" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="71" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="71" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="71" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="71" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="71" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="71" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="71" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="71" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="71" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="71" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="71" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="71" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="71" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3665,7 +3669,7 @@
         <v>173</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="75" t="s">
         <v>6</v>
@@ -3677,16 +3681,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P1" s="75" t="s">
         <v>10</v>
@@ -3695,11 +3699,11 @@
         <v>11</v>
       </c>
       <c r="R1" s="75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="50" t="n">
         <v>33</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -3714,24 +3718,24 @@
       <c r="E2" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="51"/>
+      <c r="G2" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="52"/>
       <c r="I2" s="40" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M2" s="82"/>
       <c r="N2" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O2" s="82"/>
       <c r="P2" s="82" t="s">
@@ -3743,7 +3747,7 @@
       <c r="R2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="50" t="n">
         <v>34</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -3758,24 +3762,24 @@
       <c r="E3" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="51"/>
+      <c r="G3" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="52"/>
       <c r="I3" s="40" t="s">
         <v>108</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M3" s="82"/>
       <c r="N3" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O3" s="82"/>
       <c r="P3" s="82" t="s">
@@ -3787,7 +3791,7 @@
       <c r="R3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="50" t="n">
         <v>35</v>
       </c>
       <c r="B4" s="58" t="s">
@@ -3802,24 +3806,24 @@
       <c r="E4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="51"/>
+      <c r="G4" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="52"/>
       <c r="I4" s="40" t="s">
         <v>114</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M4" s="82"/>
       <c r="N4" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O4" s="82"/>
       <c r="P4" s="82" t="s">
@@ -3831,7 +3835,7 @@
       <c r="R4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="50" t="n">
         <v>36</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -3846,24 +3850,24 @@
       <c r="E5" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="51"/>
+      <c r="G5" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="52"/>
       <c r="I5" s="40" t="s">
         <v>114</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M5" s="82"/>
       <c r="N5" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O5" s="82"/>
       <c r="P5" s="82" t="s">
@@ -3875,7 +3879,7 @@
       <c r="R5" s="82"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="50" t="n">
         <v>37</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -3890,24 +3894,24 @@
       <c r="E6" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" s="51"/>
+      <c r="G6" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="52"/>
       <c r="I6" s="40" t="s">
         <v>114</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M6" s="82"/>
       <c r="N6" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O6" s="82"/>
       <c r="P6" s="82" t="s">
@@ -3923,15 +3927,15 @@
         <v>42</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="55" t="s">
         <v>133</v>
       </c>
       <c r="F7" s="59" t="s">
@@ -3941,15 +3945,15 @@
         <v>123</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="54"/>
+      <c r="J7" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="55"/>
       <c r="L7" s="83"/>
       <c r="M7" s="83"/>
       <c r="N7" s="83"/>
@@ -3965,15 +3969,15 @@
         <v>43</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="59" t="s">
@@ -3983,21 +3987,21 @@
         <v>123</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I8" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54" t="s">
-        <v>255</v>
+      <c r="J8" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55" t="s">
+        <v>256</v>
       </c>
       <c r="M8" s="85"/>
-      <c r="N8" s="54" t="s">
-        <v>256</v>
+      <c r="N8" s="55" t="s">
+        <v>257</v>
       </c>
       <c r="O8" s="83"/>
       <c r="P8" s="83"/>
@@ -4014,12 +4018,12 @@
         <v>143</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="59" t="s">
@@ -4029,13 +4033,13 @@
         <v>123</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="54" t="s">
-        <v>211</v>
+      <c r="J9" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="K9" s="83"/>
       <c r="L9" s="83"/>
@@ -4056,12 +4060,12 @@
         <v>143</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="55" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="59" t="s">
@@ -4071,21 +4075,21 @@
         <v>123</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>211</v>
+      <c r="J10" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M10" s="83"/>
       <c r="N10" s="83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="83"/>
@@ -4104,10 +4108,10 @@
       <c r="C11" s="79" t="n">
         <v>0.25</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="59" t="s">
@@ -4117,13 +4121,13 @@
         <v>123</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="54" t="s">
-        <v>216</v>
+      <c r="J11" s="55" t="s">
+        <v>217</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
@@ -4146,10 +4150,10 @@
       <c r="C12" s="79" t="n">
         <v>0.25</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="55" t="s">
         <v>133</v>
       </c>
       <c r="F12" s="59" t="s">
@@ -4159,21 +4163,21 @@
         <v>123</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I12" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="54" t="s">
-        <v>216</v>
+      <c r="J12" s="55" t="s">
+        <v>217</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M12" s="83"/>
       <c r="N12" s="83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O12" s="83"/>
       <c r="P12" s="83"/>
@@ -4190,12 +4194,12 @@
         <v>167</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -4205,13 +4209,13 @@
         <v>123</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>211</v>
+      <c r="J13" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
@@ -4231,12 +4235,12 @@
         <v>167</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="55" t="s">
         <v>133</v>
       </c>
       <c r="F14" s="59" t="s">
@@ -4246,21 +4250,21 @@
         <v>123</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I14" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="54" t="s">
-        <v>211</v>
+      <c r="J14" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O14" s="83"/>
       <c r="P14" s="83"/>
@@ -4297,47 +4301,47 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>10</v>
@@ -4347,7 +4351,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="50" t="n">
         <v>31</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -4356,11 +4360,11 @@
       <c r="C2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>197</v>
+      <c r="D2" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>102</v>
@@ -4369,26 +4373,26 @@
         <v>179</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I2" s="40"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>200</v>
+      <c r="J2" s="52"/>
+      <c r="K2" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="O2" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="O2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4408,23 +4412,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7327935222672"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2307692307692"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4466,9 +4470,15 @@
         <v>179</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4483,36 +4493,42 @@
         <v>46</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4534,47 +4550,47 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.7004048582996"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.3400809716599"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4587,31 +4603,31 @@
         <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>10</v>
@@ -4621,56 +4637,56 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="50" t="n">
         <v>6</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="56" t="s">
-        <v>200</v>
+      <c r="I2" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q2" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="56"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="50" t="n">
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
@@ -4679,270 +4695,270 @@
       <c r="C3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>181</v>
+      <c r="D3" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="J3" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K3" s="40"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N3" s="60"/>
-      <c r="O3" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>200</v>
+      <c r="O3" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q3" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="48" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="50" t="n">
         <v>22</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>197</v>
+      <c r="D4" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="L4" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>199</v>
+      <c r="O4" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="T4" s="56"/>
+        <v>209</v>
+      </c>
+      <c r="T4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="n">
+      <c r="A5" s="50" t="n">
         <v>25</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>197</v>
+      <c r="D5" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="L5" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="Q5" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="R5" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="R5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="56"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="50" t="n">
         <v>27</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>197</v>
+      <c r="E6" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="L6" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
-      <c r="O6" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="P6" s="56" t="s">
-        <v>199</v>
+      <c r="O6" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="Q6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="R6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="50" t="n">
         <v>30</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>197</v>
+      <c r="E7" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>211</v>
+      <c r="G7" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="Q7" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="R7" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="56"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="n">
+      <c r="A8" s="50" t="n">
         <v>44</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -4951,47 +4967,47 @@
       <c r="C8" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="J8" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="40"/>
-      <c r="L8" s="51"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
-      <c r="O8" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8" s="56" t="s">
-        <v>200</v>
+      <c r="O8" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q8" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="56"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="n">
+      <c r="A9" s="50" t="n">
         <v>49</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -5000,47 +5016,47 @@
       <c r="C9" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="52" t="s">
         <v>123</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="J9" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
-      <c r="O9" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>200</v>
+      <c r="O9" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q9" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="56"/>
+      <c r="S9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="50" t="n">
         <v>54</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -5049,44 +5065,44 @@
       <c r="C10" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="52" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="J10" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="40"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
-      <c r="O10" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>200</v>
+      <c r="O10" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q10" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="56"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="64" t="n">
@@ -5098,44 +5114,44 @@
       <c r="C11" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="J11" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" s="40"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
-      <c r="O11" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>200</v>
+      <c r="O11" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="Q11" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="56"/>
+      <c r="S11" s="48"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5167,14 +5183,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5199,11 +5215,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="49" t="s">
         <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -5212,22 +5228,22 @@
         <v>179</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -5249,25 +5265,25 @@
         <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>198</v>
+        <v>223</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -5335,16 +5351,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -5353,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5388,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>39</v>
@@ -5398,7 +5414,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>72</v>
@@ -5423,7 +5439,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>72</v>
@@ -5448,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>72</v>
@@ -5472,19 +5488,19 @@
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G6" s="67" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>20</v>
@@ -5504,21 +5520,21 @@
         <v>53</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J7" s="20"/>
       <c r="L7" s="47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>20</v>
@@ -5538,21 +5554,21 @@
         <v>53</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J8" s="20"/>
       <c r="L8" s="47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>20</v>
@@ -5574,36 +5590,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="68" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="68" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="68" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="68" width="75.3036437246964"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="68" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="68" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="68" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="68" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="1022" min="18" style="68" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5616,366 +5627,130 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>12</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="0"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="68" t="s">
+      <c r="F2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="70"/>
+      <c r="N2" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>13</v>
+    <row r="3" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" s="68" t="s">
+      <c r="G3" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="70"/>
+      <c r="N3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>14</v>
+    <row r="4" customFormat="false" ht="395" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O7" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="G4" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="H4" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9" s="68" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="70"/>
+      <c r="N4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5995,31 +5770,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="71" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="71" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="71" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="71" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="71" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="71" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="71" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="71" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="71" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="71" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="71" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="71" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="71" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="71" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="71" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="71" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="71" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1022" min="18" style="71" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6032,130 +5812,366 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="J2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="0"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="74"/>
-      <c r="N2" s="0" t="s">
+      <c r="H8" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="74"/>
+      <c r="J8" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O8" s="71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="72" t="s">
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="B9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="74"/>
-      <c r="N3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="395" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="72" t="s">
+      <c r="C9" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="D9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="74"/>
-      <c r="N4" s="0" t="s">
+      <c r="H9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="O9" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6184,15 +6200,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.165991902834"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -6216,7 +6232,7 @@
         <v>173</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="75" t="s">
         <v>6</v>
@@ -6225,22 +6241,22 @@
         <v>176</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J1" s="75" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="75" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O1" s="75" t="s">
         <v>10</v>
@@ -6249,7 +6265,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,27 +6288,27 @@
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="56"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="40"/>
-      <c r="L2" s="56"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="56"/>
+      <c r="Q2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="78" t="n">
         <v>41</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="79" t="s">
@@ -6302,38 +6318,38 @@
         <v>123</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="54" t="s">
-        <v>184</v>
+      <c r="H3" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="56"/>
+        <v>255</v>
+      </c>
+      <c r="J3" s="48"/>
       <c r="K3" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="56"/>
+        <v>256</v>
+      </c>
+      <c r="L3" s="48"/>
       <c r="M3" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
+        <v>257</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="78" t="n">
         <v>46</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D4" s="79" t="s">
@@ -6343,38 +6359,38 @@
         <v>123</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>211</v>
+      <c r="H4" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J4" s="56"/>
+        <v>255</v>
+      </c>
+      <c r="J4" s="48"/>
       <c r="K4" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" s="56"/>
+        <v>256</v>
+      </c>
+      <c r="L4" s="48"/>
       <c r="M4" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+        <v>257</v>
+      </c>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="78" t="n">
         <v>51</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="79" t="s">
@@ -6384,32 +6400,32 @@
         <v>123</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>216</v>
+      <c r="H5" s="55" t="s">
+        <v>217</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J5" s="56"/>
+        <v>255</v>
+      </c>
+      <c r="J5" s="48"/>
       <c r="K5" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="56"/>
+        <v>256</v>
+      </c>
+      <c r="L5" s="48"/>
       <c r="M5" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
+        <v>257</v>
+      </c>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="50" t="n">
         <v>56</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -6421,34 +6437,34 @@
       <c r="D6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>257</v>
+      <c r="E6" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>163</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="56"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="n">
+      <c r="A7" s="50" t="n">
         <v>57</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -6460,40 +6476,40 @@
       <c r="D7" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>257</v>
+      <c r="E7" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>163</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="56"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="81" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D8" s="79" t="s">
@@ -6503,29 +6519,29 @@
         <v>123</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>211</v>
+      <c r="H8" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8" s="56"/>
+        <v>255</v>
+      </c>
+      <c r="J8" s="48"/>
       <c r="K8" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" s="56"/>
+        <v>256</v>
+      </c>
+      <c r="L8" s="48"/>
       <c r="M8" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
+        <v>257</v>
+      </c>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6552,7 +6568,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6585,16 +6601,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -6603,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
